--- a/files/import_from_site/new/13-10-2023.xlsx
+++ b/files/import_from_site/new/13-10-2023.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -530,7 +530,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>27.8%</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1549</v>
+        <v>1529</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -582,7 +582,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1249</v>
+        <v>1199</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-9.9%</t>
+          <t>-13.5%</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-12.5%</t>
+          <t>-17.1%</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2112</v>
+        <v>2259</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>16.3%</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1249</v>
+        <v>1199</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>999</v>
+        <v>949</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-2.1%</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12.7%</t>
+          <t>-3.5%</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2199</v>
+        <v>2099</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20.9%</t>
+          <t>15.4%</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1249</v>
+        <v>1199</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -992,7 +992,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-19.2%</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-91.6%</t>
+          <t>-92.8%</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.5%</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1119</v>
+        <v>999</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26.4%</t>
+          <t>12.9%</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11.6%</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-39.8%</t>
+          <t>-46.3%</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-6.5%</t>
+          <t>-13.0%</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11499</v>
+        <v>10899</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-38.9%</t>
+          <t>-43.0%</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>80.1%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2499</v>
+        <v>2449</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-4.1%</t>
+          <t>-6.0%</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1799</v>
+        <v>1749</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-34.0%</t>
+          <t>-35.9%</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>999</v>
+        <v>949</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>36.9%</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2499</v>
+        <v>2399</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-53.8%</t>
+          <t>-55.6%</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1899</v>
+        <v>1799</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-8.3%</t>
+          <t>-13.2%</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7699</v>
+        <v>7599</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7999</v>
+        <v>7899</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-7.2%</t>
+          <t>-8.4%</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10299</v>
+        <v>10149</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-2.0%</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>899</v>
+        <v>799</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-30.8%</t>
+          <t>-38.5%</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>9.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4349</v>
+        <v>4299</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4699</v>
+        <v>4599</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4699</v>
+        <v>4599</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13899</v>
+        <v>14499</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9499</v>
+        <v>8999</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-22.2%</t>
+          <t>-26.3%</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13999</v>
+        <v>13499</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>-9.2%</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5599</v>
+        <v>5499</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3999</v>
+        <v>3899</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4049</v>
+        <v>3999</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-5.8%</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4999</v>
+        <v>4899</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H55" t="n">
